--- a/biology/Zoologie/Hemisarcoptidae/Hemisarcoptidae.xlsx
+++ b/biology/Zoologie/Hemisarcoptidae/Hemisarcoptidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hemisarcoptidae forment une famille d'acariens de l'ordre des Sarcoptiformes.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hemisarcoptidae sont présents sur les insectes, dans les nids de vertébrés ou dans des habitats abrités comme les écorces d'arbre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hemisarcoptidae sont présents sur les insectes, dans les nids de vertébrés ou dans des habitats abrités comme les écorces d'arbre.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hemisarcoptidae sont largement répandus dans le monde[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hemisarcoptidae sont largement répandus dans le monde.
 </t>
         </is>
       </c>
@@ -575,8 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liste des genres
-Selon GBIF       (16 février 2023)[2] :
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (16 février 2023) :
 Divilia Sevastianov, 1969a
 Espeletiacarus Fain, 1987
 Giardius Perraud, 1897
@@ -585,10 +606,44 @@
 Linobia Berlese, 1884
 Nanacarus Oudemans, 1902
 Pasohopus OConnor &amp; Houck, 1989
-Superioropus OConnor &amp; Houck, 1989
-Systématique
-Le nom valide de ce taxon est Hemisarcoptidae[2].
-Hemisarcoptidae a pour synonyme[2] :
+Superioropus OConnor &amp; Houck, 1989</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hemisarcoptidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemisarcoptidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide de ce taxon est Hemisarcoptidae.
+Hemisarcoptidae a pour synonyme :
 Nanacaridae</t>
         </is>
       </c>
